--- a/POITest/src/CustomerInfo.xlsx
+++ b/POITest/src/CustomerInfo.xlsx
@@ -12,33 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>아이디</t>
+  </si>
+  <si>
+    <t>비밀번호</t>
   </si>
   <si>
     <t>이름</t>
   </si>
   <si>
-    <t>나이</t>
+    <t>이메일</t>
   </si>
   <si>
-    <t>이메일</t>
+    <t>ㅤ</t>
   </si>
   <si>
     <t>전화번호</t>
   </si>
   <si>
-    <t>qkrtnghd</t>
+    <t>test</t>
   </si>
   <si>
-    <t/>
+    <t>테스트</t>
   </si>
   <si>
-    <t>qkrtnghd@naver.com</t>
+    <t>test@test.com</t>
   </si>
   <si>
-    <t>010-1921-1241</t>
+    <t>010-0000-0000</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,22 +108,25 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>8</v>
+      <c r="F2" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/POITest/src/CustomerInfo.xlsx
+++ b/POITest/src/CustomerInfo.xlsx
@@ -17,10 +17,10 @@
     <t>아이디</t>
   </si>
   <si>
-    <t>이름</t>
+    <t>비밀번호</t>
   </si>
   <si>
-    <t>비밀번호</t>
+    <t>이름</t>
   </si>
   <si>
     <t>이메일</t>
@@ -32,19 +32,19 @@
     <t>test</t>
   </si>
   <si>
-    <t>test@naver.com</t>
+    <t>test@test.com</t>
   </si>
   <si>
     <t>010-1111-1111</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>test1</t>
   </si>
   <si>
-    <t>test2@naver.com</t>
+    <t>test1@test.com</t>
   </si>
   <si>
-    <t>010-2222-2222</t>
+    <t>010-1010-1010</t>
   </si>
 </sst>
 </file>
